--- a/GRN.xlsx
+++ b/GRN.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="requirement" sheetId="1" r:id="rId1"/>
     <sheet name="Product" sheetId="2" r:id="rId2"/>
+    <sheet name="Network" sheetId="3" r:id="rId3"/>
+    <sheet name="Protocol" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>server-side programming</t>
   </si>
@@ -48,13 +50,106 @@
   </si>
   <si>
     <t>Air pay</t>
+  </si>
+  <si>
+    <t>class A</t>
+  </si>
+  <si>
+    <t>class B</t>
+  </si>
+  <si>
+    <t>class C</t>
+  </si>
+  <si>
+    <t>First byte: 1-126</t>
+  </si>
+  <si>
+    <t>128-191</t>
+  </si>
+  <si>
+    <t>192-223</t>
+  </si>
+  <si>
+    <t>224-239</t>
+  </si>
+  <si>
+    <t>class D</t>
+  </si>
+  <si>
+    <t>class E</t>
+  </si>
+  <si>
+    <t>240-254</t>
+  </si>
+  <si>
+    <t>Loopback</t>
+  </si>
+  <si>
+    <t>8 bit for network id, 24 bit for host</t>
+  </si>
+  <si>
+    <t>16 bit for network</t>
+  </si>
+  <si>
+    <t>24bit for network</t>
+  </si>
+  <si>
+    <t>32 bit for network</t>
+  </si>
+  <si>
+    <t>Subnet</t>
+  </si>
+  <si>
+    <t>Borrow bit of host for subnet</t>
+  </si>
+  <si>
+    <t>subnet mask</t>
+  </si>
+  <si>
+    <t>turn borrow bit to 1</t>
+  </si>
+  <si>
+    <t>full class C: 255.255.255.0; not full netmask: 255.255.255.192 (11111111.11111111.11111111.11000000)</t>
+  </si>
+  <si>
+    <t>LDAP (Lightweight Directory Access Protocol)</t>
+  </si>
+  <si>
+    <t>TCP/IP</t>
+  </si>
+  <si>
+    <t>internet protocol</t>
+  </si>
+  <si>
+    <t>TCP &amp; UDP : TCP/IP</t>
+  </si>
+  <si>
+    <t>Transport layer of TCP/IP</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>Three step hand shake. No lost data. Resend data if not get the ACK packet</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>faster than TCP, unreliable, not resend data</t>
+  </si>
+  <si>
+    <t>ssh, web, smtp</t>
+  </si>
+  <si>
+    <t>pop3, game, video stream</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +163,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -77,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,13 +186,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,6 +231,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4171950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="1657350"/>
+          <a:ext cx="3810000" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2914650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="1647825"/>
+          <a:ext cx="2828925" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,7 +615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -437,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,4 +693,179 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="91.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/GRN.xlsx
+++ b/GRN.xlsx
@@ -130,26 +130,26 @@
     <t>TCP</t>
   </si>
   <si>
-    <t>Three step hand shake. No lost data. Resend data if not get the ACK packet</t>
-  </si>
-  <si>
     <t>UDP</t>
   </si>
   <si>
-    <t>faster than TCP, unreliable, not resend data</t>
-  </si>
-  <si>
     <t>ssh, web, smtp</t>
   </si>
   <si>
     <t>pop3, game, video stream</t>
+  </si>
+  <si>
+    <t>Three step hand shake when open connection; 4 step shake hand when finish connection. No lost data. Resend data if not get the ACK packet</t>
+  </si>
+  <si>
+    <t>faster than TCP, unreliable, not resend data, broadcast all client which is listened on certain port.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +159,19 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF3A3A3A"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF3A3A3A"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -178,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -201,21 +207,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,8 +268,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4171950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -290,7 +313,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>2914650</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -615,34 +638,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -656,37 +682,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -699,94 +726,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="91.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -801,63 +828,64 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -866,6 +894,7 @@
     <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/GRN.xlsx
+++ b/GRN.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>server-side programming</t>
   </si>
@@ -136,13 +136,16 @@
     <t>ssh, web, smtp</t>
   </si>
   <si>
-    <t>pop3, game, video stream</t>
-  </si>
-  <si>
     <t>Three step hand shake when open connection; 4 step shake hand when finish connection. No lost data. Resend data if not get the ACK packet</t>
   </si>
   <si>
-    <t>faster than TCP, unreliable, not resend data, broadcast all client which is listened on certain port.</t>
+    <t>faster than TCP, unreliable, not resend data, broadcast, multicast all client which is listened on certain port.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create connection, ensure guaranteed and ordered delivery</t>
+  </si>
+  <si>
+    <t>pop3, game, video stream. DHCP, DNS</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -222,11 +225,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -239,6 +279,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,13 +311,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4171950</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -306,13 +355,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2914650</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -825,7 +874,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -861,37 +910,43 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>37</v>
-      </c>
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/GRN.xlsx
+++ b/GRN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="requirement" sheetId="1" r:id="rId1"/>
@@ -274,11 +274,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -697,27 +697,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -743,26 +743,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -775,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -930,7 +930,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -938,7 +938,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>

--- a/GRN.xlsx
+++ b/GRN.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="requirement" sheetId="1" r:id="rId1"/>
     <sheet name="Product" sheetId="2" r:id="rId2"/>
     <sheet name="Network" sheetId="3" r:id="rId3"/>
     <sheet name="Protocol" sheetId="4" r:id="rId4"/>
+    <sheet name="JUnit" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>server-side programming</t>
   </si>
@@ -146,6 +147,69 @@
   </si>
   <si>
     <t>pop3, game, video stream. DHCP, DNS</t>
+  </si>
+  <si>
+    <t>Junit 4.x</t>
+  </si>
+  <si>
+    <t>@Test</t>
+  </si>
+  <si>
+    <t>@Before</t>
+  </si>
+  <si>
+    <t>to test a method (must be public)</t>
+  </si>
+  <si>
+    <t>run before each test method (must be public)</t>
+  </si>
+  <si>
+    <t>@BeforeClass</t>
+  </si>
+  <si>
+    <t>Run before class, one time (must be public static)</t>
+  </si>
+  <si>
+    <t>@After</t>
+  </si>
+  <si>
+    <t>against of @Before</t>
+  </si>
+  <si>
+    <t>@AfterClass</t>
+  </si>
+  <si>
+    <t>against of @BeforeClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare to value </t>
+  </si>
+  <si>
+    <t>Assert.AssertEquals(Object expectedValue, Object actualValue)</t>
+  </si>
+  <si>
+    <t>Assert.AssertTrue(boolean)</t>
+  </si>
+  <si>
+    <t>Assert.AssertFalse(boolean)</t>
+  </si>
+  <si>
+    <t>Assert.AssertArrayEquals(Object[], Object[])</t>
+  </si>
+  <si>
+    <t>Assert.AssertNull(Object)</t>
+  </si>
+  <si>
+    <t>Assert.AssertNotNull(Object)</t>
+  </si>
+  <si>
+    <t>@RunWith(Suite.class)</t>
+  </si>
+  <si>
+    <t>@SuiteClasses({A.class,B.class})</t>
+  </si>
+  <si>
+    <t>TestSuite class {}</t>
   </si>
 </sst>
 </file>
@@ -187,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -262,11 +326,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -288,6 +414,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -952,4 +1088,127 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="55" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GRN.xlsx
+++ b/GRN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="requirement" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Network" sheetId="3" r:id="rId3"/>
     <sheet name="Protocol" sheetId="4" r:id="rId4"/>
     <sheet name="JUnit" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>server-side programming</t>
   </si>
@@ -210,6 +211,18 @@
   </si>
   <si>
     <t>TestSuite class {}</t>
+  </si>
+  <si>
+    <t>coalesce(p1,p2)</t>
+  </si>
+  <si>
+    <t>return first p not null</t>
+  </si>
+  <si>
+    <t>row_number over (partition by col1 order by col2)</t>
+  </si>
+  <si>
+    <t>assign the order number by col2 group by col1 regardless of the order of whole query</t>
   </si>
 </sst>
 </file>
@@ -392,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -402,6 +415,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -414,16 +437,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,7 +1062,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1054,19 +1070,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1074,7 +1090,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1094,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1106,109 +1122,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GRN.xlsx
+++ b/GRN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="requirement" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Network" sheetId="3" r:id="rId3"/>
     <sheet name="Protocol" sheetId="4" r:id="rId4"/>
     <sheet name="JUnit" sheetId="5" r:id="rId5"/>
+    <sheet name="SQL" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>server-side programming</t>
   </si>
@@ -210,6 +211,18 @@
   </si>
   <si>
     <t>TestSuite class {}</t>
+  </si>
+  <si>
+    <t>coalesce(p1,p2..)</t>
+  </si>
+  <si>
+    <t>return the first p not null</t>
+  </si>
+  <si>
+    <t>row_number() over (partition by x order by y)</t>
+  </si>
+  <si>
+    <t>set the number order by y column group by x column regardless of the order of the whole sql</t>
   </si>
 </sst>
 </file>
@@ -402,6 +415,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -414,16 +437,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,7 +1059,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1054,19 +1067,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1074,7 +1087,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1094,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1106,106 +1119,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
